--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_54_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_54_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.350443856897848, 5.056138502846825]</t>
+          <t>[4.342315448978396, 5.064266910766277]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 1.415131825941347]</t>
+          <t>[1.264184431174269, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.017949915718812548, 0.4359303557681411]</t>
+          <t>[0.01812217272056582, 0.4357580987663878]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.03397355382771838</v>
+        <v>0.03383360780251765</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03397355382771838</v>
+        <v>0.03383360780251765</v>
       </c>
       <c r="W2" t="n">
         <v>17.59255255255285</v>
@@ -633,7 +633,7 @@
         <v>17.32396396396425</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.86114114114144</v>
+        <v>17.86114114114145</v>
       </c>
     </row>
   </sheetData>
